--- a/countryriskvariables1.xlsx
+++ b/countryriskvariables1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leomf\Documents\GitHub\countryrisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E0FFA-D117-4245-BDA6-4DE81F10C1ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B15C3-7E4D-4BC4-953F-DEBEA797E12B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{381AF379-16FD-4497-8DC2-7D6AB37D4B5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{381AF379-16FD-4497-8DC2-7D6AB37D4B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Selection" sheetId="2" r:id="rId1"/>
+    <sheet name="List of Countries" sheetId="3" r:id="rId2"/>
+    <sheet name="Early Warning" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="161">
   <si>
     <t>Variable</t>
   </si>
@@ -69,9 +71,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>NYGDPMKTPSACD</t>
-  </si>
-  <si>
     <t>PCTOT</t>
   </si>
   <si>
@@ -84,9 +83,6 @@
     <t>DSTKMKTXD</t>
   </si>
   <si>
-    <t>DMGSRMRCHSAKD</t>
-  </si>
-  <si>
     <t>TOT</t>
   </si>
   <si>
@@ -114,9 +110,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>DXGSRMRCHSAKD</t>
-  </si>
-  <si>
     <t>working</t>
   </si>
   <si>
@@ -223,6 +216,306 @@
   </si>
   <si>
     <t>Terms of Trade</t>
+  </si>
+  <si>
+    <t>Data Transformation</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Unit (Billions or Millions)</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Level or Diferrential ?</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Crisis</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>Logit</t>
+  </si>
+  <si>
+    <t>Multinomial</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>What is the best place to choose early warning?</t>
+  </si>
+  <si>
+    <t>Tranquil</t>
+  </si>
+  <si>
+    <t>Pre-crisis?</t>
+  </si>
+  <si>
+    <t>Dependent Variable Choice</t>
   </si>
 </sst>
 </file>
@@ -244,15 +537,27 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -275,11 +580,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,41 +616,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -343,16 +662,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -403,126 +712,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -866,253 +1055,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1699985A-FE9E-4B84-B636-A399DB980887}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1121,140 +1378,177 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1263,10 +1557,15 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1275,233 +1574,985 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E26">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="working">
-      <formula>NOT(ISERROR(SEARCH("working",E2)))</formula>
+  <conditionalFormatting sqref="F2:F26">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="working">
+      <formula>NOT(ISERROR(SEARCH("working",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Not">
-      <formula>NOT(ISERROR(SEARCH("Not",E2)))</formula>
+  <conditionalFormatting sqref="F2:F27">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Not">
+      <formula>NOT(ISERROR(SEARCH("Not",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E154">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+  <conditionalFormatting sqref="F2:F154">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G27">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+  <conditionalFormatting sqref="H2:H27">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"interpolation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"majority"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="minor">
-      <formula>NOT(ISERROR(SEARCH("minor",G1)))</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="minor">
+      <formula>NOT(ISERROR(SEARCH("minor",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",H1)))</formula>
+  <conditionalFormatting sqref="I1:L1 M1:M1048576">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Not">
-      <formula>NOT(ISERROR(SEARCH("Not",E28)))</formula>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Not">
+      <formula>NOT(ISERROR(SEARCH("Not",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"interpolation"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"majority"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C42C3C3-3120-49E5-96B6-4C3468366C6A}">
+  <dimension ref="A1:A74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD73DF24-09E3-428E-8B17-CC9442C76C93}">
+  <dimension ref="D2:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1990</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>1990</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>